--- a/correction/Livrable 3 - Grille d'évaluation.xlsx
+++ b/correction/Livrable 3 - Grille d'évaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benoit/Dev/cegepsherbrooke/projets-e22/meilleurs/Grill-o-presto/correction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16558C9E-8170-AB4A-90B4-98A79C566705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCA41EE-6590-7A4B-9AF9-671042CAD593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40220" yWindow="500" windowWidth="31500" windowHeight="26460" activeTab="1" xr2:uid="{2E72A9BD-EBD1-6E4A-A146-FAA31F882AED}"/>
+    <workbookView xWindow="40220" yWindow="500" windowWidth="31500" windowHeight="26460" xr2:uid="{2E72A9BD-EBD1-6E4A-A146-FAA31F882AED}"/>
   </bookViews>
   <sheets>
     <sheet name="TOTAL" sheetId="7" r:id="rId1"/>
@@ -671,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBF0D37-2E39-DB46-A4CE-9ACBAE617644}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -793,7 +793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A72D14-DC86-4B46-8231-5E4017A04FDD}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
